--- a/outputs-HGR-r202/g__Blautia.xlsx
+++ b/outputs-HGR-r202/g__Blautia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -569,6 +574,11 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>s__Blautia stercoris</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -623,6 +633,11 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>s__Blautia stercoris</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -677,6 +692,11 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>s__Blautia stercoris</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -727,6 +747,11 @@
         <v>0.9328504718437091</v>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>s__Blautia stercoris</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>s__Blautia stercoris</t>
         </is>

--- a/outputs-HGR-r202/g__Blautia.xlsx
+++ b/outputs-HGR-r202/g__Blautia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,124 +639,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT26365.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0006924441539039639</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01332245215277583</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.001517771225069647</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.001496322354317269</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002837180165402152</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.287450308288265e-06</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01598486329101214</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.000866577384890371</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.24198682733759e-06</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.02551375652550381</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.001165867791842309</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.00410968133774967</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.9324805541803971</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.9324805541803971</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT57924.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0003019339937406303</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01244849568944718</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.001687248125297414</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.008125418816907022</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.001878148491250995</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.60545454858449e-05</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.008827113821933116</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.002807991869435485</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.481436921916412e-06</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.009669055510208541</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.001620776904839763</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.01975380895082309</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.9328504718437091</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.9328504718437091</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Blautia.xlsx
+++ b/outputs-HGR-r202/g__Blautia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,11 +515,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -574,11 +569,6 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -633,11 +623,6 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -692,11 +677,6 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -751,11 +731,6 @@
           <t>s__Blautia sp900539145</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>s__Blautia sp900539145</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -806,11 +781,6 @@
         <v>0.9328504718437091</v>
       </c>
       <c r="P6" t="inlineStr">
-        <is>
-          <t>s__Blautia stercoris</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
         <is>
           <t>s__Blautia stercoris</t>
         </is>

--- a/outputs-HGR-r202/g__Blautia.xlsx
+++ b/outputs-HGR-r202/g__Blautia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -569,6 +574,11 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>s__Blautia stercoris</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -623,6 +633,11 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>s__Blautia stercoris</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -677,6 +692,11 @@
           <t>s__Blautia stercoris</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>s__Blautia stercoris</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -731,6 +751,11 @@
           <t>s__Blautia sp900539145</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>s__Blautia sp900539145</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -781,6 +806,11 @@
         <v>0.9328504718437091</v>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>s__Blautia stercoris</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>s__Blautia stercoris</t>
         </is>
